--- a/Séquence STI2D/STI2D_sequence.xlsx
+++ b/Séquence STI2D/STI2D_sequence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\33642\Desktop\DOSSIER INDUS Simulations\Séquence STI2D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{854199D2-4D34-4297-8133-8CF0AD381989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92F9AD4-0D0C-4A9F-9370-C62BAB50E94D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{81A7019C-CD91-44D6-AEDF-AF18BBF39317}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{81A7019C-CD91-44D6-AEDF-AF18BBF39317}"/>
   </bookViews>
   <sheets>
     <sheet name="Programme" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="83">
   <si>
     <t>Objectifs de formation</t>
   </si>
@@ -288,15 +288,25 @@
   </si>
   <si>
     <t>Séance n°</t>
+  </si>
+  <si>
+    <t>N° séance</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -335,7 +345,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -456,15 +466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -710,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="justify"/>
@@ -790,142 +791,154 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -935,33 +948,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1049,23 +1045,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>470647</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>379319</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>84044</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Image 2">
+        <xdr:cNvPr id="2" name="Image 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64AE0B91-A928-4547-D3EF-D6AF57548914}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07AEABE9-C8B7-4520-CAE9-6F57C45D37BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1088,8 +1084,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="6400800"/>
-          <a:ext cx="10868025" cy="5838825"/>
+          <a:off x="1131794" y="6734735"/>
+          <a:ext cx="11204201" cy="6381750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1117,21 +1113,21 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Image 3">
+        <xdr:cNvPr id="3" name="Image 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7EE9517B-718D-92B4-5E8A-35C3FE99D652}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{111B87EC-051B-196B-70A3-380D927A93FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1154,8 +1150,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="4248150"/>
-          <a:ext cx="13211175" cy="3686175"/>
+          <a:off x="0" y="4048125"/>
+          <a:ext cx="13096875" cy="3867150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1510,10 +1506,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="66"/>
+      <c r="B1" s="72"/>
       <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
@@ -1551,41 +1547,41 @@
       <c r="C3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="55" t="s">
+      <c r="D3" s="61" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="73" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="62" t="s">
+      <c r="B4" s="68" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="56"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="68"/>
-      <c r="B5" s="63"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="56"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-      <c r="B6" s="63"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="57"/>
+      <c r="D6" s="63"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
-      <c r="B7" s="63"/>
+      <c r="A7" s="74"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="11" t="s">
         <v>26</v>
       </c>
@@ -1594,8 +1590,8 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="68"/>
-      <c r="B8" s="63"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="15" t="s">
         <v>16</v>
       </c>
@@ -1604,46 +1600,46 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="68"/>
-      <c r="B9" s="63"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="D9" s="64" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="68"/>
-      <c r="B10" s="63"/>
+      <c r="A10" s="74"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="58"/>
+      <c r="D10" s="64"/>
     </row>
     <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="68"/>
-      <c r="B11" s="63"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="65" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="64"/>
+      <c r="A12" s="75"/>
+      <c r="B12" s="70"/>
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="60"/>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+      <c r="A13" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="68" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="11" t="s">
@@ -1652,26 +1648,26 @@
       <c r="D13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="69"/>
       <c r="C14" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D14" s="67" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
-      <c r="B15" s="63"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="69"/>
       <c r="C15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="61"/>
+      <c r="D15" s="67"/>
     </row>
     <row r="16" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="74"/>
+      <c r="B16" s="69"/>
       <c r="C16" s="16" t="s">
         <v>23</v>
       </c>
@@ -1680,22 +1676,22 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
-      <c r="B17" s="63"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="65" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="75"/>
+      <c r="B18" s="70"/>
       <c r="C18" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="60"/>
+      <c r="D18" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -1718,15 +1714,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3553673E-E95B-47A4-8B04-63DF3F789A85}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="26.85546875" customWidth="1"/>
@@ -1761,164 +1757,224 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81">
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="86">
         <v>1</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="73" t="s">
+      <c r="D2" s="86">
+        <v>2</v>
+      </c>
+      <c r="E2" s="86">
+        <v>3</v>
+      </c>
+      <c r="F2" s="86">
+        <v>4</v>
+      </c>
+      <c r="G2" s="87">
+        <v>5</v>
+      </c>
+      <c r="K2" s="19"/>
+    </row>
+    <row r="3" spans="1:11" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="83">
+        <v>1</v>
+      </c>
+      <c r="B3" s="80"/>
+      <c r="C3" s="79" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G3" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="25" t="s">
+    <row r="4" spans="1:11" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="E4" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F4" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="K3" s="22" t="s">
+      <c r="G4" s="77"/>
+      <c r="K4" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="26" t="s">
+    <row r="5" spans="1:11" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="85"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E5" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="K4" s="23" t="s">
+      <c r="G5" s="78"/>
+      <c r="K5" s="23" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="86">
+        <v>6</v>
+      </c>
+      <c r="C6" s="86">
+        <v>7</v>
+      </c>
+      <c r="D6" s="86">
+        <v>8</v>
+      </c>
+      <c r="E6" s="86">
+        <v>9</v>
+      </c>
+      <c r="F6" s="86">
+        <v>10</v>
+      </c>
+      <c r="G6" s="87">
+        <v>11</v>
+      </c>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="83">
         <v>2</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B7" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="74" t="s">
+      <c r="C7" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D7" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E7" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="28" t="s">
+      <c r="F7" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G7" s="76" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="82"/>
-      <c r="B6" s="73"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="29" t="s">
+    <row r="8" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="29" t="s">
+      <c r="E8" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="71"/>
-    </row>
-    <row r="7" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="82"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="76"/>
-      <c r="D7" s="30" t="s">
+      <c r="G8" s="77"/>
+    </row>
+    <row r="9" spans="1:11" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="30" t="s">
+      <c r="E9" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F9" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="72"/>
-    </row>
-    <row r="8" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81">
+      <c r="G9" s="78"/>
+    </row>
+    <row r="10" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="86">
+        <v>12</v>
+      </c>
+      <c r="D10" s="88"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="K10" s="19"/>
+    </row>
+    <row r="11" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="83">
         <v>3</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70" t="s">
+      <c r="B11" s="80"/>
+      <c r="C11" s="80" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
-    </row>
-    <row r="9" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="82"/>
-      <c r="B9" s="71"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="89"/>
+    </row>
+    <row r="12" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="89"/>
+      <c r="E12" s="89"/>
+      <c r="F12" s="89"/>
+      <c r="G12" s="89"/>
+    </row>
+    <row r="13" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="85"/>
+      <c r="B13" s="82"/>
+      <c r="C13" s="82"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D8:G10"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="G7:G9"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D10:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1930,472 +1986,475 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9308C1FF-FD01-4083-8233-1B50944CCCD2}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="71.140625" customWidth="1"/>
+    <col min="1" max="1" width="71.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" customWidth="1"/>
     <col min="12" max="12" width="6.42578125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="92">
+      <c r="B1" s="36">
         <v>1</v>
       </c>
-      <c r="C1" s="92">
+      <c r="C1" s="36">
         <v>2</v>
       </c>
-      <c r="D1" s="92">
+      <c r="D1" s="36">
         <v>3</v>
       </c>
-      <c r="E1" s="92">
+      <c r="E1" s="36">
         <v>4</v>
       </c>
-      <c r="F1" s="92">
+      <c r="F1" s="36">
         <v>5</v>
       </c>
-      <c r="G1" s="92">
+      <c r="G1" s="36">
         <v>6</v>
       </c>
-      <c r="H1" s="92">
+      <c r="H1" s="36">
         <v>7</v>
       </c>
-      <c r="I1" s="92">
+      <c r="I1" s="36">
         <v>8</v>
       </c>
-      <c r="J1" s="92">
+      <c r="J1" s="36">
         <v>9</v>
       </c>
-      <c r="K1" s="92">
+      <c r="K1" s="36">
         <v>10</v>
       </c>
-      <c r="L1" s="92">
+      <c r="L1" s="36">
         <v>11</v>
       </c>
-      <c r="M1" s="92">
+      <c r="M1" s="36">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87" t="s">
+    <row r="2" spans="1:13" ht="95.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="90" t="s">
+      <c r="F2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="90" t="s">
+      <c r="H2" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="90" t="s">
+      <c r="J2" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="90" t="s">
+      <c r="L2" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="91" t="s">
+      <c r="M2" s="41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L3" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M3" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="43" t="s">
+      <c r="B3" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="M3" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="J4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="K4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" s="53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="B4" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="B5" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L6" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="M6" s="54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L7" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M7" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
+      <c r="B7" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="J8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L8" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="B8" s="47"/>
+      <c r="C8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="F8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M8" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="B9" s="40"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="J9" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="K9" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="L9" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="M9" s="53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="47" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="L9" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" s="49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K10" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="38"/>
-      <c r="M10" s="54"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="39"/>
-      <c r="C11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L11" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="B11" s="43"/>
+      <c r="C11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L11" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K12" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L12" s="38"/>
-      <c r="M12" s="54"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B13" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51" t="s">
+      <c r="B13" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="38"/>
-      <c r="M14" s="54"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="52" t="s">
+        <v>72</v>
+      </c>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
